--- a/data/trans_orig/P21C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>116167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107458</v>
+        <v>108311</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122184</v>
+        <v>123154</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8771663389605339</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8114090119968939</v>
+        <v>0.8178463223627294</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9226019793188575</v>
+        <v>0.9299304400934491</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>202</v>
@@ -765,19 +765,19 @@
         <v>207442</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>196608</v>
+        <v>196601</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216601</v>
+        <v>216639</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8704111130639796</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8249490703067548</v>
+        <v>0.8249228464980423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9088383844956849</v>
+        <v>0.9090009530703441</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>320</v>
@@ -786,19 +786,19 @@
         <v>323609</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>309829</v>
+        <v>308138</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>334767</v>
+        <v>334220</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8728240435890608</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8356570853779153</v>
+        <v>0.8310955816011404</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.902919239019918</v>
+        <v>0.901442511854965</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>16267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10250</v>
+        <v>9280</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24976</v>
+        <v>24123</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1228336610394661</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07739802068114261</v>
+        <v>0.07006955990655081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1885909880031064</v>
+        <v>0.1821536776372705</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -836,19 +836,19 @@
         <v>30885</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21726</v>
+        <v>21688</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41719</v>
+        <v>41726</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1295888869360204</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09116161550431509</v>
+        <v>0.09099904692965584</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1750509296932452</v>
+        <v>0.1750771535019577</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -857,19 +857,19 @@
         <v>47152</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35994</v>
+        <v>36541</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60932</v>
+        <v>62623</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1271759564109391</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09708076098008193</v>
+        <v>0.09855748814503498</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1643429146220847</v>
+        <v>0.1689044183988593</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>186609</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>177037</v>
+        <v>177259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>193508</v>
+        <v>193924</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9107475543704343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8640342292950089</v>
+        <v>0.865117133190921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9444201044881091</v>
+        <v>0.9464485589266235</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>207</v>
@@ -982,19 +982,19 @@
         <v>215103</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>202871</v>
+        <v>203749</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>224594</v>
+        <v>224159</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8771625764705353</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8272827398559237</v>
+        <v>0.8308609180679379</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9158674027113691</v>
+        <v>0.9140917459525159</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>388</v>
@@ -1003,19 +1003,19 @@
         <v>401712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>387856</v>
+        <v>386572</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>413981</v>
+        <v>414417</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8924504944859749</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8616679215874418</v>
+        <v>0.8588153850855587</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9197087362685025</v>
+        <v>0.920676730957302</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>18287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11388</v>
+        <v>10972</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27859</v>
+        <v>27637</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08925244562956569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05557989551189098</v>
+        <v>0.05355144107337655</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1359657707049911</v>
+        <v>0.134882866809079</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -1053,19 +1053,19 @@
         <v>30123</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20632</v>
+        <v>21067</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42355</v>
+        <v>41477</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1228374235294647</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08413259728863094</v>
+        <v>0.08590825404748412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1727172601440763</v>
+        <v>0.1691390819320619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -1074,19 +1074,19 @@
         <v>48410</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36141</v>
+        <v>35705</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62266</v>
+        <v>63550</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1075495055140251</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08029126373149739</v>
+        <v>0.07932326904269818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1383320784125583</v>
+        <v>0.1411846149144415</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>36726</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28997</v>
+        <v>29858</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42160</v>
+        <v>42631</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7613218486628527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6010996810251136</v>
+        <v>0.618948605683744</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.873960381061099</v>
+        <v>0.8837364747979204</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -1199,19 +1199,19 @@
         <v>71853</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65634</v>
+        <v>66677</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74957</v>
+        <v>74966</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9337698615827242</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8529509679558178</v>
+        <v>0.866512914638386</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9741107641587745</v>
+        <v>0.9742349155639111</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -1220,19 +1220,19 @@
         <v>108579</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99925</v>
+        <v>97908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115670</v>
+        <v>114917</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8673186504536324</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7981944899027401</v>
+        <v>0.7820815245140003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9239642962549016</v>
+        <v>0.9179512568577941</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>11514</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6080</v>
+        <v>5609</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19243</v>
+        <v>18382</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2386781513371473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.126039618938901</v>
+        <v>0.1162635252020797</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3989003189748866</v>
+        <v>0.3810513943162562</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1270,19 +1270,19 @@
         <v>5096</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11315</v>
+        <v>10272</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06623013841727572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02588923584122548</v>
+        <v>0.02576508443608896</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1470490320441822</v>
+        <v>0.1334870853616144</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1291,19 +1291,19 @@
         <v>16610</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9519</v>
+        <v>10272</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25264</v>
+        <v>27281</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1326813495463676</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07603570374509833</v>
+        <v>0.082048743142206</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2018055100972602</v>
+        <v>0.2179184754860001</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>339501</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>324715</v>
+        <v>324957</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>351175</v>
+        <v>350941</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8805179401995737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8421682343662917</v>
+        <v>0.8427960207553877</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9107955171546089</v>
+        <v>0.910187998699395</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>477</v>
@@ -1416,19 +1416,19 @@
         <v>494398</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>477931</v>
+        <v>478829</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>508194</v>
+        <v>507889</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8820631750228606</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8526832268463296</v>
+        <v>0.8542854186138042</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9066758689427471</v>
+        <v>0.9061326820267992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>811</v>
@@ -1437,19 +1437,19 @@
         <v>833899</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>812817</v>
+        <v>810953</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>852861</v>
+        <v>852394</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8814334167996908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8591493176540953</v>
+        <v>0.8571794680427558</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.901475350011596</v>
+        <v>0.9009820523525092</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>46069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34395</v>
+        <v>34629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60855</v>
+        <v>60613</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1194820598004262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08920448284539102</v>
+        <v>0.08981200130060493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1578317656337083</v>
+        <v>0.1572039792446123</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -1487,19 +1487,19 @@
         <v>66104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52308</v>
+        <v>52613</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82571</v>
+        <v>81673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1179368249771394</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09332413105725289</v>
+        <v>0.09386731797320079</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1473167731536707</v>
+        <v>0.1457145813861958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>111</v>
@@ -1508,19 +1508,19 @@
         <v>112173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>93211</v>
+        <v>93678</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>133255</v>
+        <v>135119</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1185665832003092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09852464998840399</v>
+        <v>0.09901794764749074</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1408506823459046</v>
+        <v>0.1428205319572441</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>110666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100005</v>
+        <v>97680</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120974</v>
+        <v>119821</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7536543402662573</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6810524991854001</v>
+        <v>0.6652185421329194</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.823855247564286</v>
+        <v>0.8160001176450522</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -1872,19 +1872,19 @@
         <v>216479</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>203442</v>
+        <v>202624</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>228649</v>
+        <v>227927</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8212857311725577</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7718236004495687</v>
+        <v>0.7687194355182194</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8674556139550842</v>
+        <v>0.8647161713175989</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>308</v>
@@ -1893,19 +1893,19 @@
         <v>327145</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>308997</v>
+        <v>308565</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>342167</v>
+        <v>342555</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7970890870061932</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.752871478511592</v>
+        <v>0.7518179719445987</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8336896107234161</v>
+        <v>0.8346355401091308</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>36173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25865</v>
+        <v>27018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46834</v>
+        <v>49159</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2463456597337427</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1761447524357142</v>
+        <v>0.1839998823549478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3189475008146</v>
+        <v>0.3347814578670805</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -1943,19 +1943,19 @@
         <v>47107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34937</v>
+        <v>35659</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60144</v>
+        <v>60962</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1787142688274424</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1325443860449158</v>
+        <v>0.1352838286824013</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2281763995504313</v>
+        <v>0.2312805644817808</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -1964,19 +1964,19 @@
         <v>83280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>68258</v>
+        <v>67870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>101428</v>
+        <v>101860</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2029109129938068</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.166310389276584</v>
+        <v>0.1653644598908692</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2471285214884081</v>
+        <v>0.2481820280554013</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>208385</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>198178</v>
+        <v>195934</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>217287</v>
+        <v>216227</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.893863229838871</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8500780068847387</v>
+        <v>0.8404530217246999</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9320476033687425</v>
+        <v>0.9275003771231224</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>214</v>
@@ -2089,19 +2089,19 @@
         <v>231100</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>216877</v>
+        <v>218782</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241551</v>
+        <v>241384</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8656842476413311</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8124050578112972</v>
+        <v>0.8195398615803636</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9048295809798272</v>
+        <v>0.9042056564578088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>413</v>
@@ -2110,19 +2110,19 @@
         <v>439486</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>423293</v>
+        <v>421986</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>454124</v>
+        <v>453336</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8788206488764922</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8464398783093101</v>
+        <v>0.8438258750944007</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9080917845334857</v>
+        <v>0.9065155827516653</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>24744</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15842</v>
+        <v>16902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34951</v>
+        <v>37195</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.106136770161129</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0679523966312575</v>
+        <v>0.07249962287687768</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1499219931152614</v>
+        <v>0.1595469782753002</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -2160,19 +2160,19 @@
         <v>35857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25406</v>
+        <v>25573</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50080</v>
+        <v>48175</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1343157523586689</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09517041902017262</v>
+        <v>0.09579434354219082</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1875949421887022</v>
+        <v>0.1804601384196362</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>56</v>
@@ -2181,19 +2181,19 @@
         <v>60600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45962</v>
+        <v>46750</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76793</v>
+        <v>78100</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1211793511235077</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09190821546651423</v>
+        <v>0.0934844172483346</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1535601216906898</v>
+        <v>0.1561741249055993</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>27657</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22201</v>
+        <v>22684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30550</v>
+        <v>30547</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.874905527864702</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7023309389556556</v>
+        <v>0.7175853725745002</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9664470076407643</v>
+        <v>0.9663253889290995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -2306,19 +2306,19 @@
         <v>71913</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65076</v>
+        <v>65406</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74482</v>
+        <v>74444</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9507917456278281</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8603986901110462</v>
+        <v>0.8647552079067473</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9847606221114793</v>
+        <v>0.9842528723361204</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -2327,19 +2327,19 @@
         <v>99570</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93191</v>
+        <v>93493</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104044</v>
+        <v>104173</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9284238879333871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8689458042450081</v>
+        <v>0.8717597606130323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9701433567993305</v>
+        <v>0.9713426319912114</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>3954</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9410</v>
+        <v>8927</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.125094472135298</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03355299235923571</v>
+        <v>0.03367461107090044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2976690610443457</v>
+        <v>0.2824146274254998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -2377,19 +2377,19 @@
         <v>3722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1153</v>
+        <v>1191</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10559</v>
+        <v>10229</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04920825437217186</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01523937788852075</v>
+        <v>0.01574712766387971</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1396013098889519</v>
+        <v>0.1352447920932527</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -2398,19 +2398,19 @@
         <v>7676</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3202</v>
+        <v>3073</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14055</v>
+        <v>13753</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07157611206661281</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02985664320066949</v>
+        <v>0.02865736800878853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.131054195754992</v>
+        <v>0.1282402393869682</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>346708</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>330429</v>
+        <v>329100</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>361521</v>
+        <v>361445</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8423849660793363</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8028336303121482</v>
+        <v>0.7996026035728679</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8783766828623332</v>
+        <v>0.8781901987928914</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>480</v>
@@ -2523,19 +2523,19 @@
         <v>519493</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>501382</v>
+        <v>499766</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>536991</v>
+        <v>535396</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8569974422904363</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8271202950336816</v>
+        <v>0.8244548436259685</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.885864059249461</v>
+        <v>0.8832323821404713</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>810</v>
@@ -2544,19 +2544,19 @@
         <v>866201</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>839312</v>
+        <v>842960</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>888565</v>
+        <v>889861</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8510881875178647</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8246680460288982</v>
+        <v>0.8282528036818539</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8730621326557388</v>
+        <v>0.8743354741928867</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>64871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50058</v>
+        <v>50134</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81150</v>
+        <v>82479</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1576150339206636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1216233171376668</v>
+        <v>0.1218098012071086</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1971663696878517</v>
+        <v>0.2003973964271322</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -2594,19 +2594,19 @@
         <v>86685</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69187</v>
+        <v>70782</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>104796</v>
+        <v>106412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1430025577095637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1141359407505391</v>
+        <v>0.1167676178595286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1728797049663184</v>
+        <v>0.1755451563740315</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>140</v>
@@ -2615,19 +2615,19 @@
         <v>151556</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>129192</v>
+        <v>127896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>178445</v>
+        <v>174797</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1489118124821352</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1269378673442613</v>
+        <v>0.1256645258071136</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1753319539711017</v>
+        <v>0.1717471963181463</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>71324</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62626</v>
+        <v>63554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77877</v>
+        <v>77772</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8003724502162111</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7027681220830752</v>
+        <v>0.7131722311169149</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8739077975555694</v>
+        <v>0.8727246667747195</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -2979,19 +2979,19 @@
         <v>117866</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107515</v>
+        <v>106398</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125199</v>
+        <v>126294</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8443361245591148</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7701883320463633</v>
+        <v>0.7621869028420339</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.896865306596325</v>
+        <v>0.9047093429000953</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>172</v>
@@ -3000,19 +3000,19 @@
         <v>189190</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>176040</v>
+        <v>176215</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>199625</v>
+        <v>200428</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8272061497793382</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7697064007275105</v>
+        <v>0.7704714795187221</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8728280873535124</v>
+        <v>0.8763412083124673</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>17790</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11237</v>
+        <v>11342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26488</v>
+        <v>25560</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1996275497837889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1260922024444308</v>
+        <v>0.1272753332252804</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.297231877916925</v>
+        <v>0.2868277688830845</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -3050,19 +3050,19 @@
         <v>21730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14397</v>
+        <v>13302</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32081</v>
+        <v>33198</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1556638754408852</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.103134693403675</v>
+        <v>0.09529065709990477</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2298116679536366</v>
+        <v>0.237813097157966</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -3071,19 +3071,19 @@
         <v>39520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29085</v>
+        <v>28282</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52670</v>
+        <v>52495</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1727938502206618</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1271719126464877</v>
+        <v>0.1236587916875327</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.23029359927249</v>
+        <v>0.2295285204812779</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>161407</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>149347</v>
+        <v>150008</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>170723</v>
+        <v>171157</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.830237898201983</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7682088534589371</v>
+        <v>0.771604917382483</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8781597972875866</v>
+        <v>0.8803930840631743</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>162</v>
@@ -3196,19 +3196,19 @@
         <v>170830</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>157532</v>
+        <v>158382</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>180440</v>
+        <v>182188</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.811174040744658</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7480290814698796</v>
+        <v>0.7520677299214313</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8568063075002559</v>
+        <v>0.8651058203835971</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>310</v>
@@ -3217,19 +3217,19 @@
         <v>332237</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>315045</v>
+        <v>316345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>346637</v>
+        <v>348073</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8203250399441911</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.777877228318566</v>
+        <v>0.7810879078694091</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8558807103308522</v>
+        <v>0.8594257164216365</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>33003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23687</v>
+        <v>23253</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45063</v>
+        <v>44402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1697621017980169</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1218402027124136</v>
+        <v>0.1196069159368257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2317911465410629</v>
+        <v>0.2283950826175169</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -3267,19 +3267,19 @@
         <v>39766</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30156</v>
+        <v>28408</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53064</v>
+        <v>52214</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.188825959255342</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1431936924997441</v>
+        <v>0.1348941796164029</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2519709185301205</v>
+        <v>0.2479322700785685</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>69</v>
@@ -3288,19 +3288,19 @@
         <v>72769</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>58369</v>
+        <v>56933</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>89961</v>
+        <v>88661</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1796749600558089</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1441192896691477</v>
+        <v>0.1405742835783635</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2221227716814339</v>
+        <v>0.2189120921305907</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>37407</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30712</v>
+        <v>30824</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42320</v>
+        <v>42159</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8158460292099375</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6698300054164559</v>
+        <v>0.6722587804361461</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9229862342504676</v>
+        <v>0.9194725553365994</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3413,19 +3413,19 @@
         <v>53861</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46842</v>
+        <v>45968</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58964</v>
+        <v>58845</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8336199869235159</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7249837258855802</v>
+        <v>0.7114571910358817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9126050512349088</v>
+        <v>0.9107613625924051</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -3434,19 +3434,19 @@
         <v>91268</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81728</v>
+        <v>81304</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99449</v>
+        <v>98281</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8262423681401773</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.739869900417224</v>
+        <v>0.73603441676224</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9002996517233823</v>
+        <v>0.8897230055150073</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>8444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3531</v>
+        <v>3692</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15139</v>
+        <v>15027</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1841539707900624</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07701376574953218</v>
+        <v>0.08052744466340023</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3301699945835435</v>
+        <v>0.3277412195638538</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -3484,19 +3484,19 @@
         <v>10750</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5647</v>
+        <v>5766</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17769</v>
+        <v>18643</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.166380013076484</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08739494876509088</v>
+        <v>0.08923863740759479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2750162741144193</v>
+        <v>0.2885428089641177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -3505,19 +3505,19 @@
         <v>19194</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11013</v>
+        <v>12181</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28734</v>
+        <v>29158</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1737576318598228</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09970034827661731</v>
+        <v>0.1102769944849928</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2601300995827753</v>
+        <v>0.2639655832377601</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>270138</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>253788</v>
+        <v>254762</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>283724</v>
+        <v>282812</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8201542109977563</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7705127018798814</v>
+        <v>0.7734722493380783</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8614023493961506</v>
+        <v>0.8586335468770213</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>312</v>
@@ -3630,19 +3630,19 @@
         <v>342556</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>323797</v>
+        <v>326078</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>356604</v>
+        <v>357949</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.825830512549202</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7806051813640704</v>
+        <v>0.7861051249260533</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8596965486676539</v>
+        <v>0.8629406010900387</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>565</v>
@@ -3651,19 +3651,19 @@
         <v>612695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>590267</v>
+        <v>587741</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>631403</v>
+        <v>631364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8233181656108688</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7931805292848561</v>
+        <v>0.789785383151091</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8484573149706482</v>
+        <v>0.848405100926504</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>59237</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45651</v>
+        <v>46563</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75587</v>
+        <v>74613</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1798457890022437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1385976506038494</v>
+        <v>0.1413664531229788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2294872981201187</v>
+        <v>0.2265277506619219</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -3701,19 +3701,19 @@
         <v>72246</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58198</v>
+        <v>56853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91005</v>
+        <v>88724</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.174169487450798</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1403034513323462</v>
+        <v>0.1370593989099614</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.21939481863593</v>
+        <v>0.2138948750739468</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>123</v>
@@ -3722,19 +3722,19 @@
         <v>131483</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>112775</v>
+        <v>112814</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>153911</v>
+        <v>156437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1766818343891312</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1515426850293512</v>
+        <v>0.1515948990734956</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2068194707151438</v>
+        <v>0.2102146168489089</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>90920</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84070</v>
+        <v>83265</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97056</v>
+        <v>96240</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8519032527266768</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7877218163080072</v>
+        <v>0.7801716584556001</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9093987900365632</v>
+        <v>0.9017499344357429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>282</v>
@@ -4086,19 +4086,19 @@
         <v>160746</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>150980</v>
+        <v>151705</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167979</v>
+        <v>167837</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8330122353714438</v>
+        <v>0.8330122353714439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7824056521914285</v>
+        <v>0.7861603920746494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8704967737630205</v>
+        <v>0.8697617570177979</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>396</v>
@@ -4107,19 +4107,19 @@
         <v>251665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>238682</v>
+        <v>240243</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>261385</v>
+        <v>261719</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8397396098759522</v>
+        <v>0.8397396098759523</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7964180325171301</v>
+        <v>0.8016281075877345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8721721707455654</v>
+        <v>0.8732866491943594</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>15806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9670</v>
+        <v>10486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22656</v>
+        <v>23461</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1480967472733232</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09060120996343637</v>
+        <v>0.09825006556425711</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2122781836919927</v>
+        <v>0.2198283415443997</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -4157,19 +4157,19 @@
         <v>32223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24990</v>
+        <v>25132</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41989</v>
+        <v>41264</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1669877646285562</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1295032262369794</v>
+        <v>0.1302382429822022</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2175943478085715</v>
+        <v>0.2138396079253509</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -4178,19 +4178,19 @@
         <v>48029</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38309</v>
+        <v>37975</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61012</v>
+        <v>59451</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1602603901240477</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1278278292544346</v>
+        <v>0.1267133508056407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2035819674828705</v>
+        <v>0.1983718924122655</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>284170</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>270185</v>
+        <v>266810</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>295188</v>
+        <v>295148</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9048978146706427</v>
+        <v>0.9048978146706429</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8603666167238718</v>
+        <v>0.8496192208431983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.939983118293107</v>
+        <v>0.9398571548743696</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>421</v>
@@ -4303,19 +4303,19 @@
         <v>319128</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>304950</v>
+        <v>303803</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>329429</v>
+        <v>329678</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8791787683404959</v>
+        <v>0.8791787683404961</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8401187012434765</v>
+        <v>0.8369592026795768</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9075587159901621</v>
+        <v>0.908244068728869</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>676</v>
@@ -4324,19 +4324,19 @@
         <v>603297</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>581787</v>
+        <v>582870</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>620004</v>
+        <v>618750</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8911085391809458</v>
+        <v>0.8911085391809461</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8593363242568549</v>
+        <v>0.8609363924951355</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9157848224085332</v>
+        <v>0.9139332327169958</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>29865</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18847</v>
+        <v>18887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43850</v>
+        <v>47225</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09510218532935728</v>
+        <v>0.09510218532935727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.060016881706893</v>
+        <v>0.0601428451256305</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1396333832761281</v>
+        <v>0.150380779156802</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -4374,19 +4374,19 @@
         <v>43856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33555</v>
+        <v>33306</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58034</v>
+        <v>59181</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.120821231659504</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09244128400983791</v>
+        <v>0.09175593127113096</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1598812987565234</v>
+        <v>0.1630407973204233</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>79</v>
@@ -4395,19 +4395,19 @@
         <v>73722</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>57015</v>
+        <v>58269</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>95232</v>
+        <v>94149</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1088914608190541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0842151775914666</v>
+        <v>0.08606676728300426</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1406636757431452</v>
+        <v>0.1390636075048648</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>103155</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97389</v>
+        <v>97160</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105493</v>
+        <v>105488</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.971894904688008</v>
+        <v>0.9718949046880079</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9175649810409785</v>
+        <v>0.9154143091560726</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.993919815096398</v>
+        <v>0.993873594901142</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>123</v>
@@ -4520,19 +4520,19 @@
         <v>99189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90611</v>
+        <v>90685</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105198</v>
+        <v>105758</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8523596713092376</v>
+        <v>0.8523596713092377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7786497409377765</v>
+        <v>0.7792783849240824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9039998267204506</v>
+        <v>0.9088120304034718</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>213</v>
@@ -4541,19 +4541,19 @@
         <v>202344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>192624</v>
+        <v>192436</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209246</v>
+        <v>209447</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9093787564232101</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8656926903478823</v>
+        <v>0.8648518885996045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9403978675607261</v>
+        <v>0.9413027848719451</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>2983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8749</v>
+        <v>8978</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02810509531199214</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006080184903601796</v>
+        <v>0.006126405098858098</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08243501895902189</v>
+        <v>0.08458569084392797</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -4591,19 +4591,19 @@
         <v>17181</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11172</v>
+        <v>10612</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25759</v>
+        <v>25685</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1476403286907622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0960001732795496</v>
+        <v>0.09118796959652811</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2213502590622237</v>
+        <v>0.2207216150759177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -4612,19 +4612,19 @@
         <v>20164</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13262</v>
+        <v>13061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29884</v>
+        <v>30072</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.0906212435767899</v>
+        <v>0.09062124357678991</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05960213243927385</v>
+        <v>0.05869721512805482</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1343073096521178</v>
+        <v>0.1351481114003952</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>478245</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>461350</v>
+        <v>459649</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>491181</v>
+        <v>490909</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.907659326950445</v>
+        <v>0.9076593269504452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8755955622734579</v>
+        <v>0.8723655314911321</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9322101032579275</v>
+        <v>0.9316945179015679</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>826</v>
@@ -4737,19 +4737,19 @@
         <v>579062</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>561154</v>
+        <v>561081</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>596114</v>
+        <v>596602</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8612861173765676</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8346492152580028</v>
+        <v>0.8345403010126301</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8866487190999716</v>
+        <v>0.8873743711738835</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1285</v>
@@ -4758,19 +4758,19 @@
         <v>1057307</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1031628</v>
+        <v>1032655</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1078023</v>
+        <v>1080720</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8816609813733068</v>
+        <v>0.8816609813733072</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8602473921868307</v>
+        <v>0.861103768077727</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8989349175890834</v>
+        <v>0.9011843258293738</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>48654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35718</v>
+        <v>35990</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65549</v>
+        <v>67250</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09234067304955489</v>
+        <v>0.09234067304955491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06778989674207254</v>
+        <v>0.06830548209843218</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1244044377265421</v>
+        <v>0.1276344685088678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -4808,19 +4808,19 @@
         <v>93261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76209</v>
+        <v>75721</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>111169</v>
+        <v>111242</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1387138826234324</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1133512809000284</v>
+        <v>0.1126256288261166</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1653507847419973</v>
+        <v>0.1654596989873701</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>178</v>
@@ -4829,19 +4829,19 @@
         <v>141915</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>121199</v>
+        <v>118502</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>167594</v>
+        <v>166567</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.118339018626693</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1010650824109166</v>
+        <v>0.09881567417062627</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1397526078131693</v>
+        <v>0.138896231922273</v>
       </c>
     </row>
     <row r="15">
